--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/20/seed1/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.023999999999999</v>
+        <v>-7.989000000000002</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.202</v>
+        <v>-20.872</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.28</v>
+        <v>-22.184</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -542,15 +542,15 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.388</v>
+        <v>16.373</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.46</v>
+        <v>-21.59500000000001</v>
       </c>
       <c r="B7" t="n">
-        <v>5.586</v>
+        <v>6.355</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.296</v>
+        <v>-21.833</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>16.26</v>
+        <v>16.308</v>
       </c>
     </row>
     <row r="9">
@@ -618,7 +618,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>7.709999999999999</v>
+        <v>6.709000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -635,13 +635,13 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.182</v>
+        <v>5.56</v>
       </c>
       <c r="C12" t="n">
-        <v>-12.464</v>
+        <v>-12.068</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.056000000000001</v>
+        <v>-7.631</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -655,10 +655,10 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.776</v>
+        <v>-12.825</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.192</v>
+        <v>-8.404999999999999</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.208</v>
+        <v>-12.067</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.526000000000001</v>
+        <v>5.087000000000001</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.474</v>
+        <v>-21.726</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.404</v>
+        <v>-13.144</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>16.304</v>
+        <v>16.666</v>
       </c>
     </row>
     <row r="19">
@@ -757,38 +757,38 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-13.016</v>
+        <v>-12.704</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.546</v>
+        <v>16.826</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.772</v>
+        <v>-21.087</v>
       </c>
       <c r="B20" t="n">
-        <v>5.975999999999999</v>
+        <v>5.973999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.788</v>
+        <v>-12.666</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.344</v>
+        <v>15.923</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.032</v>
+        <v>-21.215</v>
       </c>
       <c r="B21" t="n">
-        <v>7.136</v>
+        <v>6.776999999999999</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>17.122</v>
+        <v>16.952</v>
       </c>
     </row>
     <row r="22">
@@ -805,13 +805,13 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>8.846</v>
+        <v>8.245000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.254</v>
+        <v>-12.466</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.007999999999999</v>
+        <v>-8.087</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.947999999999999</v>
+        <v>8.352</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.064</v>
+        <v>16.239</v>
       </c>
     </row>
     <row r="24">
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.966</v>
+        <v>16.719</v>
       </c>
     </row>
     <row r="25">
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.702</v>
+        <v>-8.352</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.458</v>
+        <v>-21.749</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,16 +921,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.382</v>
+        <v>-21.042</v>
       </c>
       <c r="B29" t="n">
-        <v>5.386</v>
+        <v>6.538000000000001</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.004</v>
+        <v>-7.128</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-21.272</v>
+        <v>-21.465</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.13</v>
+        <v>-21.486</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,13 +1009,13 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>8.134</v>
+        <v>7.983</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-8.077999999999999</v>
+        <v>-7.976999999999999</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.562</v>
+        <v>16.406</v>
       </c>
     </row>
     <row r="36">
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-13.568</v>
+        <v>-12.89</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.572</v>
+        <v>16.509</v>
       </c>
     </row>
     <row r="38">
@@ -1103,12 +1103,12 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>17.46</v>
+        <v>17.057</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.492</v>
+        <v>-20.779</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1137,7 +1137,7 @@
         <v>-8.720000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>16.654</v>
+        <v>16.597</v>
       </c>
     </row>
     <row r="42">
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>8.827999999999999</v>
+        <v>7.392</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1162,13 +1162,13 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>4.555999999999999</v>
+        <v>4.664</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.5</v>
+        <v>-13.075</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.74</v>
+        <v>-8.424000000000001</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1179,7 +1179,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>5.82</v>
+        <v>5.633</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.869999999999999</v>
+        <v>5.165999999999999</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,19 +1210,19 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.868</v>
+        <v>-21.216</v>
       </c>
       <c r="B46" t="n">
-        <v>5.450000000000001</v>
+        <v>6.922</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.086</v>
+        <v>-13.141</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>16.692</v>
+        <v>16.723</v>
       </c>
     </row>
     <row r="47">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.766</v>
+        <v>16.632</v>
       </c>
     </row>
     <row r="48">
@@ -1253,10 +1253,10 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.970000000000001</v>
+        <v>-7.741000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>17.316</v>
+        <v>17.04</v>
       </c>
     </row>
     <row r="49">
@@ -1281,10 +1281,10 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.52</v>
+        <v>4.956</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.452</v>
+        <v>-13.384</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.524</v>
+        <v>-21.512</v>
       </c>
       <c r="B51" t="n">
-        <v>5.38</v>
+        <v>6.522</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.022</v>
+        <v>-21.783</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.368</v>
+        <v>-21.444</v>
       </c>
       <c r="B57" t="n">
-        <v>6.517999999999999</v>
+        <v>6.909000000000001</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.644</v>
+        <v>16.377</v>
       </c>
     </row>
     <row r="58">
@@ -1426,12 +1426,12 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.548</v>
+        <v>16.599</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.734</v>
+        <v>-22.134</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1457,10 +1457,10 @@
         <v>-13.33</v>
       </c>
       <c r="D60" t="n">
-        <v>-7.481999999999999</v>
+        <v>-8.141000000000002</v>
       </c>
       <c r="E60" t="n">
-        <v>16.718</v>
+        <v>16.735</v>
       </c>
     </row>
     <row r="61">
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-21.812</v>
+        <v>-21.926</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1536,7 +1536,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>5.118</v>
+        <v>4.964</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.84</v>
+        <v>-21.492</v>
       </c>
       <c r="B66" t="n">
-        <v>6.004</v>
+        <v>6.082000000000001</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.58</v>
+        <v>5.8</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1593,7 +1593,7 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.486</v>
+        <v>-6.703999999999999</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.657999999999999</v>
+        <v>-7.164999999999999</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1644,7 +1644,7 @@
         <v>-9.93</v>
       </c>
       <c r="D71" t="n">
-        <v>-7.246</v>
+        <v>-7.522999999999999</v>
       </c>
       <c r="E71" t="n">
         <v>17.13</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.008</v>
+        <v>-20.118</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1678,15 +1678,15 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.372</v>
+        <v>-8.259</v>
       </c>
       <c r="E73" t="n">
-        <v>16.494</v>
+        <v>16.473</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-20.622</v>
+        <v>-21.244</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1726,18 +1726,18 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.526</v>
+        <v>-12.467</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.5</v>
+        <v>16.562</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-21.35</v>
+        <v>-21.176</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.653999999999999</v>
+        <v>-8.098000000000001</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>5.572000000000001</v>
+        <v>5.790999999999999</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.734</v>
+        <v>6.086</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1885,7 +1885,7 @@
         <v>-7.87</v>
       </c>
       <c r="E85" t="n">
-        <v>16.684</v>
+        <v>16.885</v>
       </c>
     </row>
     <row r="86">
@@ -1910,13 +1910,13 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>5.792</v>
+        <v>5.048</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.128</v>
+        <v>-8.241000000000001</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1992,16 +1992,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-20.624</v>
+        <v>-21.095</v>
       </c>
       <c r="B92" t="n">
-        <v>7.164000000000001</v>
+        <v>6.225</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.843999999999999</v>
+        <v>-6.497</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.206</v>
+        <v>-11.862</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2080,10 +2080,10 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>6.456</v>
+        <v>6.189</v>
       </c>
       <c r="C97" t="n">
-        <v>-12.374</v>
+        <v>-13.166</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>16.37</v>
+        <v>16.362</v>
       </c>
     </row>
     <row r="99">
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.666</v>
+        <v>-12.123</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-20.804</v>
+        <v>-21.526</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2154,10 +2154,10 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.068000000000001</v>
+        <v>-7.867</v>
       </c>
       <c r="E101" t="n">
-        <v>16.936</v>
+        <v>16.495</v>
       </c>
     </row>
     <row r="102">
